--- a/rapport d'avancement.xlsx
+++ b/rapport d'avancement.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L3 2016-2017\Projet Annuel\Projet-annuel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Jalons" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Jalon</t>
   </si>
@@ -114,38 +119,38 @@
     <t>Description</t>
   </si>
   <si>
-    <t>retard, Lecture et enregistrement d'une video seulement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulté de travailler avec openCV </t>
-  </si>
-  <si>
-    <t>Difficulté de trouver le temps pour gérer plusieurs projets du semestre au même temps</t>
-  </si>
-  <si>
-    <t>Retard sur le projet</t>
-  </si>
-  <si>
-    <t>impossibilité d'implementer les classes qui permettent de lire un QR code</t>
-  </si>
-  <si>
-    <t>Diverse recherches internet et documentation</t>
-  </si>
-  <si>
-    <t>Essayer de organiser le temps et se liberer pour le projet après la livraison des autres projets du semestre</t>
-  </si>
-  <si>
     <t>En cours</t>
   </si>
   <si>
     <t>à faire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficultés à travailler avec openCV </t>
+  </si>
+  <si>
+    <t>Retard sur la capture d'images  à la webcam</t>
+  </si>
+  <si>
+    <t>Fermé</t>
+  </si>
+  <si>
+    <t>Difficultés pour gérer plusieurs projets du semestre en même temps</t>
+  </si>
+  <si>
+    <t>Planification afin de progresser sur ce projet après la livraison des autres projets du semestre et ainsi rattraper notre retard.</t>
+  </si>
+  <si>
+    <t>Retard sur la reconnaissance de QR codes et du plateau</t>
+  </si>
+  <si>
+    <t>retard, difficultés lecture et affichage des images d'une webcam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,19 +234,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:D9" totalsRowShown="0">
+  <autoFilter ref="A1:D9"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Jalon"/>
+    <tableColumn id="2" name="Date prévue" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" name="Date réalisation" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" name="A signaler" dataDxfId="12" dataCellStyle="Normal 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:E3" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:E3"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Enoncé" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="Impact" dataDxfId="5" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" name="Date de signalement" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" name="Etat" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" name="Actions en cours" dataDxfId="2" dataCellStyle="Normal 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:E9"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="N°" dataDxfId="7"/>
+    <tableColumn id="2" name="Description" dataDxfId="8"/>
+    <tableColumn id="3" name="Priorité" dataDxfId="11"/>
+    <tableColumn id="4" name="Lot" dataDxfId="9"/>
+    <tableColumn id="5" name="Etat" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -283,7 +387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,9 +419,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,6 +454,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,22 +630,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -553,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -565,7 +671,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -577,7 +683,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="20.25" customHeight="1">
+    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -586,10 +692,10 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -601,7 +707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.75" customHeight="1">
+    <row r="6" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -613,7 +719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -625,7 +731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -637,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -651,18 +757,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" customWidth="1"/>
@@ -671,7 +780,7 @@
     <col min="5" max="5" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -688,29 +797,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1">
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="11">
         <v>42676</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C3" s="11">
         <v>42694</v>
@@ -724,26 +831,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="89" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -760,8 +871,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -770,15 +881,15 @@
       <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>1</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -787,66 +898,66 @@
       <c r="C3" s="17">
         <v>2</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>1</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>3</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>2</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>2</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>5</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>2</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -855,15 +966,15 @@
       <c r="C7" s="17">
         <v>6</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>3</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -872,31 +983,31 @@
       <c r="C8" s="17">
         <v>7</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>3</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>8</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>3</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="14"/>
@@ -904,5 +1015,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/rapport d'avancement.xlsx
+++ b/rapport d'avancement.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Jalon</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>retard, difficultés lecture et affichage des images d'une webcam</t>
+  </si>
+  <si>
+    <t>Difficultés à générer un JAR executable</t>
+  </si>
+  <si>
+    <t>Retard sur la livraison</t>
+  </si>
+  <si>
+    <t>Envoi du projet en archive et recherche sur la compilation de projets.</t>
   </si>
 </sst>
 </file>
@@ -244,10 +253,22 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -266,16 +287,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -286,9 +298,6 @@
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -308,37 +317,37 @@
   <autoFilter ref="A1:D9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Jalon"/>
-    <tableColumn id="2" name="Date prévue" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="Date prévue" dataDxfId="14" dataCellStyle="Normal 2"/>
     <tableColumn id="3" name="Date réalisation" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" name="A signaler" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" name="A signaler" dataDxfId="13" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:E3" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A1:E3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:E4" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:E4"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Enoncé" dataDxfId="6" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="Impact" dataDxfId="5" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="Date de signalement" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" name="Etat" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" name="Actions en cours" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" name="Enoncé" dataDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="Impact" dataDxfId="9" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" name="Date de signalement" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" name="Etat" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" name="Actions en cours" dataDxfId="6" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:E9"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="N°" dataDxfId="7"/>
-    <tableColumn id="2" name="Description" dataDxfId="8"/>
-    <tableColumn id="3" name="Priorité" dataDxfId="11"/>
-    <tableColumn id="4" name="Lot" dataDxfId="9"/>
-    <tableColumn id="5" name="Etat" dataDxfId="10"/>
+    <tableColumn id="1" name="N°" dataDxfId="4"/>
+    <tableColumn id="2" name="Description" dataDxfId="3"/>
+    <tableColumn id="3" name="Priorité" dataDxfId="2"/>
+    <tableColumn id="4" name="Lot" dataDxfId="1"/>
+    <tableColumn id="5" name="Etat" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -765,10 +774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,6 +836,23 @@
       </c>
       <c r="E3" s="10" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="11">
+        <v>42705</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/rapport d'avancement.xlsx
+++ b/rapport d'avancement.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Jalon</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Retard sur la reconnaissance de QR codes et du plateau</t>
   </si>
   <si>
-    <t>retard, difficultés lecture et affichage des images d'une webcam</t>
-  </si>
-  <si>
     <t>Difficultés à générer un JAR executable</t>
   </si>
   <si>
@@ -153,6 +150,18 @@
   </si>
   <si>
     <t>Envoi du projet en archive et recherche sur la compilation de projets.</t>
+  </si>
+  <si>
+    <t>Superposition de l'image à ajouter sur le code déjà reconnu</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>Erreur pour la compilation d'un des programmes de test</t>
+  </si>
+  <si>
+    <t>Envoi du projet avec certains tests fonctionnels.</t>
   </si>
 </sst>
 </file>
@@ -326,8 +335,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:E4" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A1:E4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:E7" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Enoncé" dataDxfId="10" dataCellStyle="Normal 2"/>
     <tableColumn id="2" name="Impact" dataDxfId="9" dataCellStyle="Normal 2"/>
@@ -643,7 +652,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,9 +708,11 @@
       <c r="B4" s="5">
         <v>42689</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="7">
+        <v>42381</v>
+      </c>
       <c r="D4" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -711,10 +722,10 @@
       <c r="B5" s="5">
         <v>42706</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="7">
+        <v>42395</v>
+      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -725,7 +736,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,7 +748,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -749,7 +760,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -774,10 +785,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A6" sqref="A6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +843,7 @@
         <v>42694</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>38</v>
@@ -840,10 +851,10 @@
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="C4" s="11">
         <v>42705</v>
@@ -852,8 +863,39 @@
         <v>19</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="11">
+        <v>42706</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -868,7 +910,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">

--- a/rapport d'avancement.xlsx
+++ b/rapport d'avancement.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Jalon</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Envoi du projet avec certains tests fonctionnels.</t>
+  </si>
+  <si>
+    <t>Livraison partiellement fonctionnelle.</t>
   </si>
 </sst>
 </file>
@@ -788,7 +791,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,10 +874,10 @@
         <v>45</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C5" s="11">
-        <v>42706</v>
+        <v>42399</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>19</v>
